--- a/Testing Directus - Planificación.xlsx
+++ b/Testing Directus - Planificación.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalonso\Desktop\global-directus\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094D65EB-A185-4EA4-8EA5-0725BA5A1E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BF8E8F-1345-48BF-A96F-41E1FCF733AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Día</t>
   </si>
@@ -62,36 +62,6 @@
     <t>TESTING: Obtención de datos a través de GraphQL</t>
   </si>
   <si>
-    <t>UPDATING: Corrección de errores y documentación</t>
-  </si>
-  <si>
-    <t>CODE: Creación de tablas y obtención de datos</t>
-  </si>
-  <si>
-    <t>CODE: Filtrado de elementos</t>
-  </si>
-  <si>
-    <t>CODE: Navegación</t>
-  </si>
-  <si>
-    <t>UPDATING: Corrección de errores</t>
-  </si>
-  <si>
-    <t>CODE: Registro de usuarios</t>
-  </si>
-  <si>
-    <t>CODE: Carrito compra</t>
-  </si>
-  <si>
-    <t>CODE: Autenticación</t>
-  </si>
-  <si>
-    <t>CODE: Seguridad</t>
-  </si>
-  <si>
-    <t>CODE: Menú navegación</t>
-  </si>
-  <si>
     <t>DOCUMENTATION: Análisis Directus desde el Frontend</t>
   </si>
   <si>
@@ -105,6 +75,39 @@
   </si>
   <si>
     <t>MEDIA</t>
+  </si>
+  <si>
+    <t>DOCUMENTATION: Manual de usuario Gestión de Directus</t>
+  </si>
+  <si>
+    <t>TESTING: Creación de tablas y obtención de datos</t>
+  </si>
+  <si>
+    <t>TESTING: Filtrado de elementos</t>
+  </si>
+  <si>
+    <t>TESTING: Navegación</t>
+  </si>
+  <si>
+    <t>TESTING: Carrito compra</t>
+  </si>
+  <si>
+    <t>TESTING: Registro de usuarios</t>
+  </si>
+  <si>
+    <t>TESTING: Autenticación</t>
+  </si>
+  <si>
+    <t>TESTING: Seguridad &amp; Menú de navegación</t>
+  </si>
+  <si>
+    <t>DEBUGGING: Corrección de errores</t>
+  </si>
+  <si>
+    <t>DOCUMENTATION: Documentación</t>
+  </si>
+  <si>
+    <t>DOCUMENTATION: GitHub</t>
   </si>
 </sst>
 </file>
@@ -236,10 +239,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -530,7 +533,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,16 +555,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -574,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -587,8 +590,8 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>23</v>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -596,29 +599,29 @@
         <v>44783</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44784</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>3</v>
@@ -629,7 +632,7 @@
         <v>44785</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>3</v>
@@ -646,7 +649,7 @@
         <v>44789</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -657,7 +660,7 @@
         <v>44790</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>3</v>
@@ -668,7 +671,7 @@
         <v>44791</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -679,7 +682,7 @@
         <v>44792</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>3</v>
@@ -696,7 +699,7 @@
         <v>44795</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>3</v>
@@ -707,7 +710,7 @@
         <v>44796</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>3</v>
@@ -718,7 +721,7 @@
         <v>44797</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>3</v>
@@ -729,7 +732,7 @@
         <v>44798</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>3</v>
@@ -740,26 +743,26 @@
         <v>44799</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44802</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>3</v>
@@ -770,7 +773,7 @@
         <v>44803</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>3</v>
@@ -781,7 +784,7 @@
         <v>44804</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>3</v>
@@ -792,7 +795,7 @@
         <v>44805</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>3</v>
@@ -803,7 +806,7 @@
         <v>44806</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>3</v>
